--- a/Reports/Reports_Excel/Report-2.xlsx
+++ b/Reports/Reports_Excel/Report-2.xlsx
@@ -28,22 +28,22 @@
     </font>
     <font/>
     <font>
+      <b/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="28"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Light"/>
+    </font>
+    <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="28"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI Light"/>
-    </font>
-    <font>
-      <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b val="0"/>
@@ -63,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -86,23 +86,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="3" fillId="0" borderId="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="0" borderId="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="4" fillId="0" borderId="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="2">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -190,138 +206,76 @@
     <sheetView workbookViewId="0" showGridLines="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" customWidth="1" width="32.98046875"/>
+    <col min="1" max="1" customWidth="1" width="27.421875"/>
     <col min="2" max="2" customWidth="1" width="13.7109375"/>
     <col min="3" max="3" customWidth="1" width="13.7109375"/>
     <col min="4" max="4" customWidth="1" width="13.7109375"/>
-    <col min="5" max="5" customWidth="1" width="1.30078125"/>
-    <col min="6" max="6" customWidth="1" width="54.79296875"/>
+    <col min="5" max="5" customWidth="1" width="34.28125"/>
+    <col min="6" max="6" customWidth="1" width="10.62109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1">
-      <c s="1" t="inlineStr" r="A1">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="56.15" customHeight="1"/>
-    <row r="3" ht="18" customHeight="0">
-      <c s="2" t="inlineStr" r="B3">
-        <is>
-          <t xml:space="preserve">Full Name</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="C3">
-        <is>
-          <t xml:space="preserve">Course name</t>
-        </is>
-      </c>
-      <c s="2" t="inlineStr" r="D3">
-        <is>
-          <t xml:space="preserve">Grade</t>
-        </is>
-      </c>
-    </row>
+    <row r="1" ht="20.45" customHeight="1"/>
+    <row r="2" ht="36" customHeight="1">
+      <c s="1" t="inlineStr" r="B2">
+        <is>
+          <t xml:space="preserve">Student Courses</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="42.2" customHeight="1"/>
     <row r="4" ht="18" customHeight="0">
-      <c s="3" t="inlineStr" r="B4">
+      <c s="2" t="inlineStr" r="B4">
+        <is>
+          <t xml:space="preserve">Full Name1</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="C4">
+        <is>
+          <t xml:space="preserve">grade</t>
+        </is>
+      </c>
+      <c s="3" t="inlineStr" r="D4">
+        <is>
+          <t xml:space="preserve">course name</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="0">
+      <c s="2" t="inlineStr" r="B5">
         <is>
           <t xml:space="preserve">Ahmed elemam</t>
         </is>
       </c>
-      <c s="3" t="inlineStr" r="C4">
+      <c s="4" r="C5">
+        <v>100</v>
+      </c>
+      <c s="3" t="inlineStr" r="D5">
         <is>
           <t xml:space="preserve">C++</t>
         </is>
       </c>
-      <c s="4" r="D4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="0">
-      <c s="3" t="inlineStr" r="B5">
-        <is>
-          <t xml:space="preserve">Ali ali</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="C5">
-        <is>
-          <t xml:space="preserve">C++</t>
-        </is>
-      </c>
-      <c s="4" r="D5">
+    </row>
+    <row r="6" ht="18" customHeight="0">
+      <c s="5" t="str" r="B6"/>
+      <c s="4" r="C6">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" ht="18" customHeight="0">
-      <c s="3" t="inlineStr" r="B6">
-        <is>
-          <t xml:space="preserve">Ahmed elemam</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="C6">
+      <c s="3" t="inlineStr" r="D6">
         <is>
           <t xml:space="preserve">C#</t>
         </is>
       </c>
-      <c s="4" r="D6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="0">
-      <c s="3" t="inlineStr" r="B7">
-        <is>
-          <t xml:space="preserve">Amged mohamed</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="C7">
-        <is>
-          <t xml:space="preserve">C#</t>
-        </is>
-      </c>
-      <c s="4" r="D7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="0">
-      <c s="3" t="inlineStr" r="B8">
-        <is>
-          <t xml:space="preserve">Ayman belal</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="C8">
-        <is>
-          <t xml:space="preserve">HTML</t>
-        </is>
-      </c>
-      <c s="4" r="D8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="0">
-      <c s="3" t="inlineStr" r="B9">
-        <is>
-          <t xml:space="preserve">Samir Zakaria</t>
-        </is>
-      </c>
-      <c s="3" t="inlineStr" r="C9">
-        <is>
-          <t xml:space="preserve">CSS</t>
-        </is>
-      </c>
-      <c s="4" r="D9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" ht="33.85" customHeight="1"/>
+    </row>
+    <row r="7" ht="27.35" customHeight="1"/>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1.45" header="1" footer="1"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;"Segoe UI,Regular"&amp;10  </oddFooter>
+    <oddFooter>&amp;R&amp;"Segoe UI,Regular"&amp;10 2/26/2023 11:34:46 PM </oddFooter>
   </headerFooter>
 </worksheet>
 </file>